--- a/constants/dummyData/students-invalid.xlsx
+++ b/constants/dummyData/students-invalid.xlsx
@@ -20,7 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
+  <si>
+    <t xml:space="preserve">EMAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME</t>
+  </si>
   <si>
     <t xml:space="preserve">jacob75@example.org</t>
   </si>
@@ -347,10 +353,12 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -395,12 +403,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -421,27 +433,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
@@ -449,7 +461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
@@ -457,7 +469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
@@ -465,7 +477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
@@ -473,7 +485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>10</v>
       </c>
@@ -481,7 +493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
@@ -489,7 +501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>14</v>
       </c>
@@ -497,7 +509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
@@ -505,7 +517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>18</v>
       </c>
@@ -513,7 +525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>20</v>
       </c>
@@ -521,7 +533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>22</v>
       </c>
@@ -530,22 +542,22 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>27</v>
       </c>
@@ -557,19 +569,19 @@
       <c r="A16" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="0" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>32</v>
       </c>
@@ -577,7 +589,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>34</v>
       </c>
@@ -585,7 +597,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>36</v>
       </c>
@@ -593,7 +605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>38</v>
       </c>
@@ -601,7 +613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>40</v>
       </c>
@@ -609,7 +621,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>42</v>
       </c>
@@ -617,7 +629,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>44</v>
       </c>
@@ -625,7 +637,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>46</v>
       </c>
@@ -633,7 +645,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>48</v>
       </c>
@@ -641,7 +653,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>50</v>
       </c>
@@ -649,7 +661,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>52</v>
       </c>
@@ -657,7 +669,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>54</v>
       </c>
@@ -665,7 +677,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>56</v>
       </c>
@@ -673,7 +685,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>58</v>
       </c>
@@ -681,7 +693,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>60</v>
       </c>
@@ -689,7 +701,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>62</v>
       </c>
@@ -697,7 +709,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>64</v>
       </c>
@@ -705,7 +717,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>66</v>
       </c>
@@ -713,7 +725,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>68</v>
       </c>
@@ -721,7 +733,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>70</v>
       </c>
@@ -729,7 +741,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>72</v>
       </c>
@@ -737,7 +749,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>74</v>
       </c>
@@ -745,7 +757,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>76</v>
       </c>
@@ -753,7 +765,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>78</v>
       </c>
@@ -761,7 +773,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>80</v>
       </c>
@@ -769,7 +781,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>82</v>
       </c>
@@ -777,7 +789,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>84</v>
       </c>
@@ -785,7 +797,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>86</v>
       </c>
@@ -793,7 +805,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>88</v>
       </c>
@@ -801,7 +813,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>90</v>
       </c>
@@ -809,7 +821,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>92</v>
       </c>
@@ -817,7 +829,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>94</v>
       </c>
@@ -825,7 +837,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>96</v>
       </c>
@@ -833,7 +845,14 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
